--- a/Ref/인터페이스_명세서.xlsx
+++ b/Ref/인터페이스_명세서.xlsx
@@ -374,15 +374,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,30 +426,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,240 +726,240 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="13"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="14"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="14"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="14"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
